--- a/excel/ss_log.xlsx
+++ b/excel/ss_log.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="2023-12-15 10_22_59" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2023-12-15 10_26_58" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2023-12-15 10_50_14" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2023-12-15 16_39_07" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -252,7 +254,6 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -364,6 +365,233 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Sensirion SCD40 Test Sample 0</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'2023-12-15 10_50_14'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'2023-12-15 10_50_14'!$B$2:$B$31</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Test number</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>CO2 (ppm)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Sensirion SCD40 Test Sample 0</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'2023-12-15 16_39_07'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'2023-12-15 16_39_07'!$B$2:$B$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Test number</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>CO2 (ppm)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -392,6 +620,60 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>32</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -1023,4 +1305,588 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_07</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_08</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_08</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>24</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_08</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>24</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_08</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>24</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_08</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_09</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>24</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_09</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_09</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>24</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_09</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>24</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_10</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>24</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_10</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>24</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_10</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>24</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_10</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>24</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_11</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>24</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_11</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>24</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_11</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>24</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_11</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>24</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_11</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>24</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_12</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>24</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_12</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>24</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_12</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>24</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_12</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_13</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_13</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>24</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_13</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>24</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_13</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>24</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_14</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>24</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_14</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>24</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2023-12-15 10_50_14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2023-12-15 16_37_35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2023-12-15 16_37_45</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>22</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2023-12-15 16_37_55</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>22</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2023-12-15 16_38_05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>22</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2023-12-15 16_38_16</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>22</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2023-12-15 16_38_26</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2023-12-15 16_38_36</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>22</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2023-12-15 16_38_46</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>22</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2023-12-15 16_38_56</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>22</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2023-12-15 16_39_07</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/excel/ss_log.xlsx
+++ b/excel/ss_log.xlsx
@@ -11,6 +11,7 @@
     <sheet name="2023-12-15 10_26_58" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="2023-12-15 10_50_14" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="2023-12-15 16_39_07" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2023-12-18 09_45_00" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -480,7 +481,6 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -524,6 +524,120 @@
           <val>
             <numRef>
               <f>'2023-12-15 16_39_07'!$B$2:$B$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Test number</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>CO2 (ppm)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Sensirion SCD40 Test Sample 0</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'2023-12-18 09_45_00'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'2023-12-18 09_45_00'!$C$2:$C$11</f>
             </numRef>
           </val>
         </ser>
@@ -674,6 +788,33 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -1889,4 +2030,166 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2023-12-18 09_44_49</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2023-12-18 09_44_50</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>21</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2023-12-18 09_44_51</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>21</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2023-12-18 09_44_52</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>21</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2023-12-18 09_44_54</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>21</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2023-12-18 09_44_55</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2023-12-18 09_44_56</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>21</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2023-12-18 09_44_57</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>21</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2023-12-18 09_44_58</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>21</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2023-12-18 09_45_00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>